--- a/csv/policies/reference/Ref_renewable content transport fuels/formula_Ref_renewable content transport fuels_ON.xlsx
+++ b/csv/policies/reference/Ref_renewable content transport fuels/formula_Ref_renewable content transport fuels_ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_renewable content transport fuels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD156177-37B0-415D-95CE-735CB554307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F548122-E51F-4EF9-92DC-960BC82128EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{BCB4D1BA-C8A3-4770-9056-B9C0CAF61DA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{603F1541-52FC-47B8-A97C-32A1BDF56CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,21 +490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457BBB72-9422-44B6-AFFE-2D6C23F26660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A8D997-1BD4-4471-B0B9-5C7024E1CB89}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -641,7 +641,7 @@
         <v>3.4981905910735828E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0.10573382430299842</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -767,7 +767,7 @@
         <v>3.4981905910735828E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0.10573382430299842</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>

--- a/csv/policies/reference/Ref_renewable content transport fuels/formula_Ref_renewable content transport fuels_ON.xlsx
+++ b/csv/policies/reference/Ref_renewable content transport fuels/formula_Ref_renewable content transport fuels_ON.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_renewable content transport fuels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F548122-E51F-4EF9-92DC-960BC82128EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC8C4A3-40AC-499B-A0A8-E7CEE2B7861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{603F1541-52FC-47B8-A97C-32A1BDF56CBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E72ACDB-FF2C-425E-A2CE-45F88A8B5C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -80,46 +80,43 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Transportation Personal.Diesel Blend</t>
+    <t>CIMS.CAN.ON.Fuel Blends.Gasoline_Transportation</t>
   </si>
   <si>
     <t>ON</t>
   </si>
   <si>
-    <t>Transportation Personal</t>
-  </si>
-  <si>
-    <t>Diesel Blend</t>
+    <t>Gasoline_Transportation</t>
+  </si>
+  <si>
+    <t>Market share_class_min</t>
+  </si>
+  <si>
+    <t>2011-2015 (?) federl standard; 2016 (?) to 2030 Ontario standard</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Market share_class</t>
+  </si>
+  <si>
+    <t>Renewable Gasoline</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.ON.Fuel Blends.Diesel_Transportation</t>
+  </si>
+  <si>
+    <t>Diesel_Transportation</t>
+  </si>
+  <si>
+    <t>Market share new_min</t>
   </si>
   <si>
     <t>Biodiesel</t>
   </si>
   <si>
-    <t>Market share new_min</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Transportation Personal.Gasoline Blend</t>
-  </si>
-  <si>
-    <t>Gasoline Blend</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Transportation Freight.Diesel Blend</t>
-  </si>
-  <si>
-    <t>Transportation Freight</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Transportation Freight.Gasoline Blend</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Transportation Freight.Flex Blend</t>
-  </si>
-  <si>
-    <t>Flex Blend</t>
+    <t>Renewable Diesel</t>
   </si>
 </sst>
 </file>
@@ -490,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A8D997-1BD4-4471-B0B9-5C7024E1CB89}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5537653C-8379-4A49-857F-C9142565E886}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X7"/>
+      <selection sqref="A1:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,17 +585,14 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -610,40 +604,44 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f ca="1">0.67*0.05/(0.67*0.05+1*0.95)</f>
+        <v>3.4062023385866808E-2</v>
       </c>
       <c r="Q3">
-        <f>0.87*0.04/(0.87*0.04+1*0.96)</f>
-        <v>3.4981905910735828E-2</v>
+        <f ca="1">0.67*0.1/(0.67*0.1+1*0.9)</f>
+        <v>6.9286452947259561E-2</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:W7" si="0">Q3</f>
-        <v>3.4981905910735828E-2</v>
+        <f ca="1">0.67*0.11/(0.67*0.11+1*0.89)</f>
+        <v>7.6476081768185128E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
+        <f ca="1">0.67*0.15/(0.67*0.15+1*0.85)</f>
+        <v>0.10573382430299842</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
+        <f t="shared" ref="T3:W3" ca="1" si="0">S3</f>
+        <v>0.10573382430299842</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10573382430299842</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10573382430299842</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10573382430299842</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -651,62 +649,22 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>0.67*0.1/(0.67*0.1+1*0.9)</f>
-        <v>6.9286452947259561E-2</v>
-      </c>
-      <c r="R4">
-        <f>0.67*0.11/(0.67*0.11+1*0.89)</f>
-        <v>7.6476081768185128E-2</v>
-      </c>
-      <c r="S4">
-        <f>0.67*0.15/(0.67*0.15+1*0.85)</f>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -714,62 +672,22 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>0.87*0.04/(0.87*0.04+1*0.96)</f>
-        <v>3.4981905910735828E-2</v>
-      </c>
-      <c r="R5">
-        <f>Q5</f>
-        <v>3.4981905910735828E-2</v>
-      </c>
-      <c r="S5">
-        <f>R5</f>
-        <v>3.4981905910735828E-2</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>3.4981905910735828E-2</v>
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -777,17 +695,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+      <c r="H6" t="s">
+        <v>23</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -799,40 +714,44 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f ca="1">0.87*0.02/(0.87*0.02+1*0.98)</f>
+        <v>1.7445357930619611E-2</v>
       </c>
       <c r="Q6">
-        <f>0.67*0.1/(0.67*0.1+1*0.9)</f>
-        <v>6.9286452947259561E-2</v>
+        <f ca="1">0.87*0.04/(0.87*0.04+1*0.96)</f>
+        <v>3.4981905910735828E-2</v>
       </c>
       <c r="R6">
-        <f>0.67*0.11/(0.67*0.11+1*0.89)</f>
-        <v>7.6476081768185128E-2</v>
+        <f t="shared" ref="R6:W6" ca="1" si="1">Q6</f>
+        <v>3.4981905910735828E-2</v>
       </c>
       <c r="S6">
-        <f>0.67*0.15/(0.67*0.15+1*0.85)</f>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4981905910735828E-2</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4981905910735828E-2</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4981905910735828E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4981905910735828E-2</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4981905910735828E-2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -840,57 +759,40 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>0.67*0.1/(0.67*0.1+1*0.9)</f>
-        <v>6.9286452947259561E-2</v>
-      </c>
-      <c r="R7">
-        <f>0.67*0.11/(0.67*0.11+1*0.89)</f>
-        <v>7.6476081768185128E-2</v>
-      </c>
-      <c r="S7">
-        <f>0.67*0.15/(0.67*0.15+1*0.85)</f>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>0.10573382430299842</v>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
